--- a/Evaluation/eval003/sub0411/Classifcation Report.xlsx
+++ b/Evaluation/eval003/sub0411/Classifcation Report.xlsx
@@ -400,13 +400,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9509803921568627</v>
+        <v>0.9238095238095239</v>
       </c>
       <c r="C2" t="n">
         <v>0.9603960396039604</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9556650246305418</v>
+        <v>0.941747572815534</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -419,13 +419,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.96</v>
+        <v>0.9587628865979382</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9504950495049505</v>
+        <v>0.9207920792079208</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9552238805970149</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="E3" t="n">
         <v>101</v>
@@ -438,16 +438,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9554455445544554</v>
+        <v>0.9405940594059405</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9554455445544554</v>
+        <v>0.9405940594059405</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9554455445544554</v>
+        <v>0.9405940594059405</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9554455445544554</v>
+        <v>0.9405940594059405</v>
       </c>
     </row>
     <row r="5">
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9554901960784313</v>
+        <v>0.941286205203731</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9554455445544554</v>
+        <v>0.9405940594059405</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9554444526137784</v>
+        <v>0.9405707561047367</v>
       </c>
       <c r="E5" t="n">
         <v>202</v>
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9554901960784313</v>
+        <v>0.941286205203731</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9554455445544554</v>
+        <v>0.9405940594059405</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9554444526137784</v>
+        <v>0.9405707561047367</v>
       </c>
       <c r="E6" t="n">
         <v>202</v>
